--- a/SEMANA1/GRUPO_5_Gantt.xlsx
+++ b/SEMANA1/GRUPO_5_Gantt.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0762E477-DACF-400D-AAEF-7B6C27F1A8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12300"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <definedName name="task_start" localSheetId="0">ProjectSchedule!$F1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">ProjectSchedule!$4:$6</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,6 +32,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -255,7 +258,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="9">
     <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
@@ -1290,46 +1293,46 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="169" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1339,67 +1342,67 @@
     <xf numFmtId="169" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="3" xfId="9" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
-    <cellStyle name="20% - Énfasis1" xfId="31" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="35" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="39" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="43" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="47" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="51" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="32" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="36" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="40" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="44" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="48" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="52" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="33" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="37" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="41" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="45" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="49" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="53" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="18" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="23" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="25" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="24" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="6" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="17" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="30" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="34" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="38" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="42" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="46" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="50" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="20% - Èmfasi1" xfId="31" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Èmfasi2" xfId="35" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Èmfasi3" xfId="39" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Èmfasi4" xfId="43" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Èmfasi5" xfId="47" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Èmfasi6" xfId="51" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Èmfasi1" xfId="32" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Èmfasi2" xfId="36" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Èmfasi3" xfId="40" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Èmfasi4" xfId="44" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Èmfasi5" xfId="48" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Èmfasi6" xfId="52" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Èmfasi1" xfId="33" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Èmfasi2" xfId="37" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Èmfasi3" xfId="41" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Èmfasi4" xfId="45" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Èmfasi5" xfId="49" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Èmfasi6" xfId="53" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bé" xfId="18" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Càlcul" xfId="23" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Cel·la de comprovació" xfId="25" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Cel·la enllaçada" xfId="24" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Coma" xfId="4" builtinId="3" customBuiltin="1"/>
+    <cellStyle name="Èmfasi1" xfId="30" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Èmfasi2" xfId="34" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Èmfasi3" xfId="38" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Èmfasi4" xfId="42" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Èmfasi5" xfId="46" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Èmfasi6" xfId="50" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Enllaç" xfId="1" builtinId="8" customBuiltin="1"/>
+    <cellStyle name="Enllaç visitat" xfId="13" builtinId="9" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="21" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Fecha" xfId="10"/>
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" customBuiltin="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="13" builtinId="9" customBuiltin="1"/>
-    <cellStyle name="Incorrecto" xfId="19" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Inicio del proyecto" xfId="9"/>
-    <cellStyle name="Millares" xfId="4" builtinId="3" customBuiltin="1"/>
-    <cellStyle name="Millares [0]" xfId="14" builtinId="6" customBuiltin="1"/>
+    <cellStyle name="Fecha" xfId="10" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Incorrecte" xfId="19" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Inicio del proyecto" xfId="9" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Milers [0]" xfId="14" builtinId="6" customBuiltin="1"/>
     <cellStyle name="Moneda" xfId="15" builtinId="4" customBuiltin="1"/>
     <cellStyle name="Moneda [0]" xfId="16" builtinId="7" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="20" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Nombre" xfId="11"/>
+    <cellStyle name="Nombre" xfId="11" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Notas" xfId="27" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Porcentaje" xfId="2" builtinId="5" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="22" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Tarea" xfId="12"/>
-    <cellStyle name="Texto de advertencia" xfId="26" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="28" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="5" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="7" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="8" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Nota" xfId="27" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Percentatge" xfId="2" builtinId="5" customBuiltin="1"/>
+    <cellStyle name="Resultat" xfId="22" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Tarea" xfId="12" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Text d'advertiment" xfId="26" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Text explicatiu" xfId="28" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Títol" xfId="5" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Títol 1" xfId="6" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Títol 2" xfId="7" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Títol 3" xfId="8" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Títol 4" xfId="17" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="29" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="zTextoOculto" xfId="3"/>
+    <cellStyle name="zTextoOculto" xfId="3" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -1428,13 +1431,6 @@
         <left/>
         <right/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border>
@@ -1531,16 +1527,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="ListaTareasPendientes" pivot="0" count="9">
-      <tableStyleElement type="wholeTable" dxfId="12"/>
-      <tableStyleElement type="headerRow" dxfId="11"/>
-      <tableStyleElement type="totalRow" dxfId="10"/>
-      <tableStyleElement type="firstColumn" dxfId="9"/>
-      <tableStyleElement type="lastColumn" dxfId="8"/>
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="secondRowStripe" dxfId="6"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="5"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="4"/>
+    <tableStyle name="ListaTareasPendientes" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="wholeTable" dxfId="11"/>
+      <tableStyleElement type="headerRow" dxfId="10"/>
+      <tableStyleElement type="totalRow" dxfId="9"/>
+      <tableStyleElement type="firstColumn" dxfId="8"/>
+      <tableStyleElement type="lastColumn" dxfId="7"/>
+      <tableStyleElement type="firstRowStripe" dxfId="6"/>
+      <tableStyleElement type="secondRowStripe" dxfId="5"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="4"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="3"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1951,32 +1947,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BM28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12:XFD12"/>
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="44" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="2.7109375" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" hidden="1" customWidth="1"/>
-    <col min="10" max="65" width="2.42578125" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="44" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="2.6640625" customWidth="1"/>
+    <col min="9" max="9" width="6.109375" hidden="1" customWidth="1"/>
+    <col min="10" max="65" width="2.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -1995,7 +1991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:65" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="44" t="s">
         <v>2</v>
       </c>
@@ -2006,34 +2002,34 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="44" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="74"/>
-      <c r="C3" s="92" t="s">
+      <c r="C3" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="93"/>
-      <c r="E3" s="94"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="92"/>
       <c r="F3" s="99">
         <f>DATE(2023,10,16)</f>
         <v>45215</v>
       </c>
       <c r="G3" s="99"/>
     </row>
-    <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="45" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="93" t="s">
+      <c r="C4" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="93"/>
-      <c r="E4" s="94"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="92"/>
       <c r="F4" s="7">
         <v>1</v>
       </c>
@@ -2118,17 +2114,17 @@
       <c r="BL4" s="97"/>
       <c r="BM4" s="98"/>
     </row>
-    <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
       <c r="J5" s="71">
         <f>InicioDelProyecto-WEEKDAY(InicioDelProyecto,1)+2+7*(SemanaParaMostrar-1)</f>
         <v>45215</v>
@@ -2354,7 +2350,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:65" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="45" t="s">
         <v>10</v>
       </c>
@@ -2380,27 +2376,27 @@
       </c>
       <c r="J6" s="10" t="str">
         <f t="shared" ref="J6" si="7">LEFT(TEXT(J5,"ddd"),1)</f>
-        <v>d</v>
+        <v>l</v>
       </c>
       <c r="K6" s="10" t="str">
         <f t="shared" ref="K6:AS6" si="8">LEFT(TEXT(K5,"ddd"),1)</f>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="L6" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="M6" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="N6" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>d</v>
+        <v>v</v>
       </c>
       <c r="O6" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="P6" s="10" t="str">
         <f t="shared" si="8"/>
@@ -2408,27 +2404,27 @@
       </c>
       <c r="Q6" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>d</v>
+        <v>l</v>
       </c>
       <c r="R6" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="S6" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="T6" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="U6" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>d</v>
+        <v>v</v>
       </c>
       <c r="V6" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="W6" s="10" t="str">
         <f t="shared" si="8"/>
@@ -2436,27 +2432,27 @@
       </c>
       <c r="X6" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>d</v>
+        <v>l</v>
       </c>
       <c r="Y6" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="Z6" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="AA6" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="AB6" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>d</v>
+        <v>v</v>
       </c>
       <c r="AC6" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="AD6" s="10" t="str">
         <f t="shared" si="8"/>
@@ -2464,27 +2460,27 @@
       </c>
       <c r="AE6" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>d</v>
+        <v>l</v>
       </c>
       <c r="AF6" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="AG6" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="AH6" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="AI6" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>d</v>
+        <v>v</v>
       </c>
       <c r="AJ6" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="AK6" s="10" t="str">
         <f t="shared" si="8"/>
@@ -2492,27 +2488,27 @@
       </c>
       <c r="AL6" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>d</v>
+        <v>l</v>
       </c>
       <c r="AM6" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="AN6" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="AO6" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="AP6" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>d</v>
+        <v>v</v>
       </c>
       <c r="AQ6" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="AR6" s="10" t="str">
         <f t="shared" si="8"/>
@@ -2520,27 +2516,27 @@
       </c>
       <c r="AS6" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>d</v>
+        <v>l</v>
       </c>
       <c r="AT6" s="10" t="str">
         <f t="shared" ref="AT6:BF6" si="9">LEFT(TEXT(AT5,"ddd"),1)</f>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="AU6" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="AV6" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="AW6" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>d</v>
+        <v>v</v>
       </c>
       <c r="AX6" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="AY6" s="10" t="str">
         <f t="shared" si="9"/>
@@ -2548,27 +2544,27 @@
       </c>
       <c r="AZ6" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>d</v>
+        <v>l</v>
       </c>
       <c r="BA6" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="BB6" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="BC6" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="BD6" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>d</v>
+        <v>v</v>
       </c>
       <c r="BE6" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="BF6" s="10" t="str">
         <f t="shared" si="9"/>
@@ -2576,34 +2572,34 @@
       </c>
       <c r="BG6" s="10" t="str">
         <f t="shared" ref="BG6:BM6" si="10">LEFT(TEXT(BG5,"ddd"),1)</f>
-        <v>d</v>
+        <v>l</v>
       </c>
       <c r="BH6" s="10" t="str">
         <f t="shared" si="10"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="BI6" s="10" t="str">
         <f t="shared" si="10"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="BJ6" s="10" t="str">
         <f t="shared" si="10"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="BK6" s="10" t="str">
         <f t="shared" si="10"/>
-        <v>d</v>
+        <v>v</v>
       </c>
       <c r="BL6" s="10" t="str">
         <f t="shared" si="10"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="BM6" s="10" t="str">
         <f t="shared" si="10"/>
         <v>d</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:65" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="44" t="s">
         <v>17</v>
       </c>
@@ -2671,7 +2667,7 @@
       <c r="BL7" s="30"/>
       <c r="BM7" s="30"/>
     </row>
-    <row r="8" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="45" t="s">
         <v>18</v>
       </c>
@@ -2745,19 +2741,19 @@
       <c r="BL8" s="30"/>
       <c r="BM8" s="30"/>
     </row>
-    <row r="9" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="90" t="s">
+      <c r="B9" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="91"/>
+      <c r="C9" s="95"/>
       <c r="D9" s="77" t="s">
         <v>44</v>
       </c>
       <c r="E9" s="17">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F9" s="58">
         <f>DATE(2023,10,19)</f>
@@ -2829,17 +2825,17 @@
       <c r="BL9" s="30"/>
       <c r="BM9" s="30"/>
     </row>
-    <row r="10" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="44"/>
-      <c r="B10" s="90" t="s">
+      <c r="B10" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="91"/>
+      <c r="C10" s="95"/>
       <c r="D10" s="77" t="s">
         <v>45</v>
       </c>
       <c r="E10" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="58">
         <f>DATE(2023,10,19)</f>
@@ -2911,17 +2907,17 @@
       <c r="BL10" s="30"/>
       <c r="BM10" s="30"/>
     </row>
-    <row r="11" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="44"/>
-      <c r="B11" s="90" t="s">
+      <c r="B11" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="91"/>
+      <c r="C11" s="95"/>
       <c r="D11" s="77" t="s">
         <v>46</v>
       </c>
       <c r="E11" s="17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F11" s="58">
         <f>DATE(2023,10,19)</f>
@@ -2990,7 +2986,7 @@
       <c r="BL11" s="30"/>
       <c r="BM11" s="30"/>
     </row>
-    <row r="12" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="45" t="s">
         <v>20</v>
       </c>
@@ -3064,7 +3060,7 @@
       <c r="BL12" s="30"/>
       <c r="BM12" s="30"/>
     </row>
-    <row r="13" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="44"/>
       <c r="B13" s="86" t="s">
         <v>50</v>
@@ -3146,17 +3142,17 @@
       <c r="BL13" s="30"/>
       <c r="BM13" s="30"/>
     </row>
-    <row r="14" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44"/>
       <c r="B14" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="89"/>
+      <c r="C14" s="88"/>
       <c r="D14" s="79" t="s">
         <v>44</v>
       </c>
       <c r="E14" s="20">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F14" s="61">
         <f>DATE(2023,10,23)</f>
@@ -3228,12 +3224,12 @@
       <c r="BL14" s="30"/>
       <c r="BM14" s="30"/>
     </row>
-    <row r="15" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="44"/>
-      <c r="B15" s="88" t="s">
+      <c r="B15" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="89"/>
+      <c r="C15" s="88"/>
       <c r="D15" s="79" t="s">
         <v>46</v>
       </c>
@@ -3310,7 +3306,7 @@
       <c r="BL15" s="30"/>
       <c r="BM15" s="30"/>
     </row>
-    <row r="16" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="44" t="s">
         <v>21</v>
       </c>
@@ -3384,12 +3380,12 @@
       <c r="BL16" s="30"/>
       <c r="BM16" s="30"/>
     </row>
-    <row r="17" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="44"/>
-      <c r="B17" s="82" t="s">
+      <c r="B17" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="83"/>
+      <c r="C17" s="85"/>
       <c r="D17" s="78" t="s">
         <v>45</v>
       </c>
@@ -3466,12 +3462,12 @@
       <c r="BL17" s="30"/>
       <c r="BM17" s="30"/>
     </row>
-    <row r="18" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="44"/>
-      <c r="B18" s="82" t="s">
+      <c r="B18" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="83"/>
+      <c r="C18" s="85"/>
       <c r="D18" s="78" t="s">
         <v>46</v>
       </c>
@@ -3548,12 +3544,12 @@
       <c r="BL18" s="30"/>
       <c r="BM18" s="30"/>
     </row>
-    <row r="19" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="44"/>
-      <c r="B19" s="82" t="s">
+      <c r="B19" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="83"/>
+      <c r="C19" s="85"/>
       <c r="D19" s="78" t="s">
         <v>44</v>
       </c>
@@ -3630,7 +3626,7 @@
       <c r="BL19" s="30"/>
       <c r="BM19" s="30"/>
     </row>
-    <row r="20" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="44" t="s">
         <v>21</v>
       </c>
@@ -3704,12 +3700,12 @@
       <c r="BL20" s="30"/>
       <c r="BM20" s="30"/>
     </row>
-    <row r="21" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="44"/>
-      <c r="B21" s="84" t="s">
+      <c r="B21" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="85"/>
+      <c r="C21" s="83"/>
       <c r="D21" s="80" t="s">
         <v>45</v>
       </c>
@@ -3786,12 +3782,12 @@
       <c r="BL21" s="30"/>
       <c r="BM21" s="30"/>
     </row>
-    <row r="22" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="44"/>
-      <c r="B22" s="84" t="s">
+      <c r="B22" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="85"/>
+      <c r="C22" s="83"/>
       <c r="D22" s="80" t="s">
         <v>44</v>
       </c>
@@ -3868,12 +3864,12 @@
       <c r="BL22" s="30"/>
       <c r="BM22" s="30"/>
     </row>
-    <row r="23" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="44"/>
-      <c r="B23" s="84" t="s">
+      <c r="B23" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="85"/>
+      <c r="C23" s="83"/>
       <c r="D23" s="80" t="s">
         <v>46</v>
       </c>
@@ -3950,7 +3946,7 @@
       <c r="BL23" s="30"/>
       <c r="BM23" s="30"/>
     </row>
-    <row r="24" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="44" t="s">
         <v>22</v>
       </c>
@@ -4022,7 +4018,7 @@
       <c r="BL24" s="30"/>
       <c r="BM24" s="30"/>
     </row>
-    <row r="25" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="45" t="s">
         <v>23</v>
       </c>
@@ -4096,15 +4092,15 @@
       <c r="BL25" s="32"/>
       <c r="BM25" s="32"/>
     </row>
-    <row r="26" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="G27" s="46"/>
     </row>
-    <row r="28" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
     </row>
@@ -4125,15 +4121,15 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
   </mergeCells>
   <conditionalFormatting sqref="E7:E25">
     <cfRule type="dataBar" priority="50">
@@ -4150,29 +4146,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:BL23">
-    <cfRule type="expression" dxfId="3" priority="63">
-      <formula>AND(task_start&lt;=J$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=J$5)</formula>
-    </cfRule>
     <cfRule type="expression" dxfId="2" priority="64" stopIfTrue="1">
       <formula>AND(task_end&gt;=J$5,task_start&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J7:BM23">
+    <cfRule type="expression" dxfId="1" priority="63">
+      <formula>AND(task_start&lt;=J$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="BM7:BM23">
-    <cfRule type="expression" dxfId="1" priority="67">
-      <formula>AND(task_start&lt;=BM$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BM$5)</formula>
-    </cfRule>
     <cfRule type="expression" dxfId="0" priority="68" stopIfTrue="1">
       <formula>AND(task_end&gt;=BM$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Mostrar semana" prompt="Al cambiar este número, se desplazará la vista del diagrama de Gantt." sqref="F4">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Mostrar semana" prompt="Al cambiar este número, se desplazará la vista del diagrama de Gantt." sqref="F4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="AO1" r:id="rId1"/>
-    <hyperlink ref="AO2" r:id="rId2"/>
+    <hyperlink ref="AO1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="AO2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
@@ -4205,7 +4200,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4213,96 +4208,96 @@
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="99.28515625" style="34" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="99.33203125" style="34" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:2" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:2" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="35"/>
     </row>
-    <row r="3" spans="1:2" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="41" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="41"/>
     </row>
-    <row r="4" spans="1:2" s="37" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" s="37" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A4" s="38" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="38" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="34" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" s="34" customFormat="1" ht="204.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="43" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="37" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" s="37" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A8" s="38" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="34" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" s="34" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="42" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="37" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" s="37" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A11" s="38" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="39" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="34" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" s="34" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="42" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="37" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" s="37" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A14" s="38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="39" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="39" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A13" r:id="rId1"/>
-    <hyperlink ref="A10" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4"/>
+    <hyperlink ref="A13" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A10" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="A2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
